--- a/medicine/Enfance/L'Erreur_de_l'épouvanteur/L'Erreur_de_l'épouvanteur.xlsx
+++ b/medicine/Enfance/L'Erreur_de_l'épouvanteur/L'Erreur_de_l'épouvanteur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%27Erreur_de_l%27%C3%A9pouvanteur</t>
+          <t>L'Erreur_de_l'épouvanteur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Erreur de l'épouvanteur (titre original : The Spook's Mistake) est le cinquième tome de la série L'Épouvanteur signée Joseph Delaney. Paru en 2008, il est précédé du Combat de l'épouvanteur et suivi du Sacrifice de l'épouvanteur.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%27Erreur_de_l%27%C3%A9pouvanteur</t>
+          <t>L'Erreur_de_l'épouvanteur</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tom a maintenant quatorze ans, et cela fera bientôt deux années et demi qu'il est l'apprenti de l'Épouvanteur. Il va devoir vaincre ses peurs et affronter l'obscur qui menace le Comté.
 John Gregory s'inquiète pour son apprenti. Sera-t-il assez fort pour combattre le Malin, désormais libéré, libre de faire ce qu'il veut ?
